--- a/doc/スケジュール_要求リスト.xlsx
+++ b/doc/スケジュール_要求リスト.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26505"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aki/Desktop/pbl2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\誠俊\Documents\src\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="15996" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="要求リスト_1207" sheetId="5" r:id="rId1"/>
@@ -2138,14 +2138,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2156,7 +2157,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="243">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
@@ -2408,6 +2408,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2737,33 +2740,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="75" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="C19" zoomScale="75" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="24" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="23.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="10"/>
-    <col min="2" max="2" width="21.1640625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="73" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="100.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.796875" style="10"/>
+    <col min="2" max="2" width="21.19921875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="73" style="9" customWidth="1"/>
+    <col min="4" max="4" width="100.19921875" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="53.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.83203125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="24.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.796875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="24.796875" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.5" style="14" customWidth="1"/>
-    <col min="9" max="9" width="60.1640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.83203125" style="1"/>
-    <col min="11" max="11" width="48.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.83203125" style="1"/>
+    <col min="9" max="9" width="60.19921875" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.796875" style="1"/>
+    <col min="11" max="11" width="48.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1" s="10"/>
       <c r="E1" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>26</v>
       </c>
@@ -2780,7 +2783,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -2800,7 +2803,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -2820,7 +2823,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -2840,7 +2843,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -2854,7 +2857,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -2868,7 +2871,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -2885,7 +2888,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -2902,7 +2905,7 @@
       <c r="L9"/>
       <c r="M9"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -2919,7 +2922,7 @@
       <c r="L10"/>
       <c r="M10"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -2936,7 +2939,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -2950,7 +2953,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -2964,7 +2967,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -2976,7 +2979,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -2988,7 +2991,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>14</v>
       </c>
@@ -3000,7 +3003,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -3012,7 +3015,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -3024,7 +3027,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -3042,7 +3045,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -3054,7 +3057,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -3066,7 +3069,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -3078,7 +3081,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -3090,7 +3093,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -3102,7 +3105,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -3114,7 +3117,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -3126,7 +3129,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -3138,7 +3141,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -3150,7 +3153,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -3162,7 +3165,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -3174,7 +3177,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -3186,7 +3189,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -3198,7 +3201,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -3210,7 +3213,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -3222,7 +3225,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -3234,12 +3237,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C38" s="39" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C38" s="33" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C39" s="9" t="s">
         <v>169</v>
       </c>
@@ -3247,7 +3250,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C40" s="9" t="s">
         <v>170</v>
       </c>
@@ -3255,37 +3258,37 @@
         <v>171</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C41" s="9" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C42" s="9" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C43" s="9" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C44" s="9" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C45" s="9" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C46" s="9" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C47" s="9" t="s">
         <v>179</v>
       </c>
@@ -3305,23 +3308,23 @@
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="22" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.83203125" style="6"/>
-    <col min="5" max="5" width="13.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" style="6"/>
-    <col min="7" max="7" width="81.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.796875" style="6"/>
+    <col min="5" max="5" width="13.796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.796875" style="6"/>
+    <col min="7" max="7" width="81.19921875" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="65.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.83203125" style="6"/>
-    <col min="11" max="11" width="61.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.796875" style="6"/>
+    <col min="11" max="11" width="61.69921875" style="6" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="36" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.83203125" style="6"/>
-    <col min="14" max="15" width="12.83203125" style="1"/>
+    <col min="13" max="13" width="12.796875" style="6"/>
+    <col min="14" max="15" width="12.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C3" s="7" t="s">
         <v>41</v>
       </c>
@@ -3344,7 +3347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C4" s="7" t="s">
         <v>69</v>
       </c>
@@ -3365,7 +3368,7 @@
       </c>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C5" s="7" t="s">
         <v>74</v>
       </c>
@@ -3386,7 +3389,7 @@
       </c>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C6" s="7" t="s">
         <v>38</v>
       </c>
@@ -3407,13 +3410,13 @@
       </c>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7"/>
       <c r="O7"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="21" t="s">
         <v>126</v>
       </c>
@@ -3443,9 +3446,9 @@
       <c r="N8"/>
       <c r="O8"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="19"/>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="36" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="11" t="s">
@@ -3467,9 +3470,9 @@
       <c r="N9"/>
       <c r="O9"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="20"/>
-      <c r="C10" s="33"/>
+      <c r="C10" s="36"/>
       <c r="D10" s="12"/>
       <c r="E10" s="16">
         <v>42346</v>
@@ -3491,11 +3494,11 @@
       <c r="N10"/>
       <c r="O10"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="36" t="s">
         <v>34</v>
       </c>
       <c r="D11" s="12"/>
@@ -3517,9 +3520,9 @@
       <c r="N11"/>
       <c r="O11"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="34"/>
-      <c r="C12" s="33"/>
+      <c r="C12" s="36"/>
       <c r="D12" s="12"/>
       <c r="E12" s="16">
         <v>42353</v>
@@ -3539,9 +3542,9 @@
       <c r="N12"/>
       <c r="O12"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="34"/>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="36" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="12"/>
@@ -3563,9 +3566,9 @@
       <c r="N13"/>
       <c r="O13"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="34"/>
-      <c r="C14" s="33"/>
+      <c r="C14" s="36"/>
       <c r="D14" s="13"/>
       <c r="E14" s="16">
         <v>42360</v>
@@ -3587,7 +3590,7 @@
       <c r="N14"/>
       <c r="O14"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="34" t="s">
         <v>122</v>
       </c>
@@ -3615,7 +3618,7 @@
       <c r="N15"/>
       <c r="O15"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="34"/>
       <c r="C16" s="18" t="s">
         <v>37</v>
@@ -3637,9 +3640,9 @@
       <c r="N16"/>
       <c r="O16"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="34"/>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="36" t="s">
         <v>34</v>
       </c>
       <c r="D17" s="12"/>
@@ -3659,9 +3662,9 @@
       <c r="N17"/>
       <c r="O17"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="34"/>
-      <c r="C18" s="33"/>
+      <c r="C18" s="36"/>
       <c r="D18" s="12"/>
       <c r="E18" s="16">
         <v>42023</v>
@@ -3679,11 +3682,11 @@
       <c r="N18"/>
       <c r="O18"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="36" t="s">
         <v>35</v>
       </c>
       <c r="D19" s="12"/>
@@ -3703,9 +3706,9 @@
       <c r="N19"/>
       <c r="O19"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="34"/>
-      <c r="C20" s="33"/>
+      <c r="C20" s="36"/>
       <c r="D20" s="12"/>
       <c r="E20" s="16">
         <v>42030</v>
@@ -3723,9 +3726,9 @@
       <c r="N20"/>
       <c r="O20"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="34"/>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="36" t="s">
         <v>38</v>
       </c>
       <c r="D21" s="12"/>
@@ -3745,9 +3748,9 @@
       <c r="N21"/>
       <c r="O21"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="34"/>
-      <c r="C22" s="33"/>
+      <c r="C22" s="36"/>
       <c r="D22" s="12"/>
       <c r="E22" s="16">
         <v>42037</v>
@@ -3765,11 +3768,11 @@
       <c r="N22"/>
       <c r="O22"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="36" t="s">
         <v>33</v>
       </c>
       <c r="D23" s="12"/>
@@ -3789,9 +3792,9 @@
       <c r="N23"/>
       <c r="O23"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="34"/>
-      <c r="C24" s="33"/>
+      <c r="C24" s="36"/>
       <c r="D24" s="12"/>
       <c r="E24" s="16">
         <v>42044</v>
@@ -3809,9 +3812,9 @@
       <c r="N24"/>
       <c r="O24"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="34"/>
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="36" t="s">
         <v>34</v>
       </c>
       <c r="D25" s="12"/>
@@ -3833,9 +3836,9 @@
       <c r="N25"/>
       <c r="O25"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="34"/>
-      <c r="C26" s="33"/>
+      <c r="C26" s="36"/>
       <c r="D26" s="12"/>
       <c r="E26" s="16">
         <v>42051</v>
@@ -3853,11 +3856,11 @@
       <c r="N26"/>
       <c r="O26"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="36" t="s">
         <v>35</v>
       </c>
       <c r="D27" s="12"/>
@@ -3877,9 +3880,9 @@
       <c r="N27"/>
       <c r="O27"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="35"/>
-      <c r="C28" s="33"/>
+      <c r="C28" s="36"/>
       <c r="D28" s="13"/>
       <c r="E28" s="16">
         <v>42058</v>
@@ -3899,6 +3902,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C17:C18"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="B19:B22"/>
@@ -3907,12 +3916,6 @@
     <mergeCell ref="B23:B26"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C17:C18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3928,20 +3931,20 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="25"/>
+    <col min="1" max="1" width="12.796875" style="25"/>
     <col min="2" max="2" width="10" style="25" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="14.296875" style="24" customWidth="1"/>
     <col min="4" max="4" width="17.5" style="24" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5" style="24" customWidth="1"/>
-    <col min="6" max="6" width="31.1640625" style="25" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.19921875" style="25" customWidth="1"/>
+    <col min="7" max="7" width="18.69921875" style="25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="12.83203125" style="25"/>
+    <col min="9" max="16384" width="12.796875" style="25"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3" s="22" t="s">
         <v>26</v>
       </c>
@@ -3964,7 +3967,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" s="26" t="s">
         <v>147</v>
       </c>
@@ -3974,14 +3977,14 @@
       <c r="D4" s="24">
         <v>2</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="38" t="s">
         <v>136</v>
       </c>
       <c r="G4" s="25" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" s="26" t="s">
         <v>148</v>
       </c>
@@ -3991,12 +3994,12 @@
       <c r="D5" s="24">
         <v>2</v>
       </c>
-      <c r="F5" s="37"/>
+      <c r="F5" s="38"/>
       <c r="G5" s="25" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="27" t="s">
         <v>149</v>
       </c>
@@ -4006,14 +4009,14 @@
       <c r="D6" s="24">
         <v>2</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="38" t="s">
         <v>137</v>
       </c>
       <c r="G6" s="25" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="27" t="s">
         <v>150</v>
       </c>
@@ -4023,12 +4026,12 @@
       <c r="D7" s="24">
         <v>2</v>
       </c>
-      <c r="F7" s="37"/>
+      <c r="F7" s="38"/>
       <c r="G7" s="25" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="27" t="s">
         <v>151</v>
       </c>
@@ -4038,14 +4041,14 @@
       <c r="D8" s="24">
         <v>2</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="F8" s="38" t="s">
         <v>140</v>
       </c>
       <c r="G8" s="25" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="27" t="s">
         <v>152</v>
       </c>
@@ -4055,12 +4058,12 @@
       <c r="D9" s="24">
         <v>2</v>
       </c>
-      <c r="F9" s="37"/>
+      <c r="F9" s="38"/>
       <c r="G9" s="25" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="27" t="s">
         <v>153</v>
       </c>
@@ -4070,14 +4073,14 @@
       <c r="D10" s="24">
         <v>2</v>
       </c>
-      <c r="F10" s="36" t="s">
+      <c r="F10" s="37" t="s">
         <v>142</v>
       </c>
       <c r="G10" s="25" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="27" t="s">
         <v>154</v>
       </c>
@@ -4087,12 +4090,12 @@
       <c r="D11" s="24">
         <v>2</v>
       </c>
-      <c r="F11" s="36"/>
+      <c r="F11" s="37"/>
       <c r="G11" s="25" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="28" t="s">
         <v>155</v>
       </c>
@@ -4103,17 +4106,17 @@
         <v>2</v>
       </c>
       <c r="E12" s="29"/>
-      <c r="F12" s="38" t="s">
+      <c r="F12" s="39" t="s">
         <v>143</v>
       </c>
       <c r="G12" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="H12" s="36" t="s">
+      <c r="H12" s="37" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="28" t="s">
         <v>156</v>
       </c>
@@ -4124,13 +4127,13 @@
         <v>2</v>
       </c>
       <c r="E13" s="29"/>
-      <c r="F13" s="38"/>
+      <c r="F13" s="39"/>
       <c r="G13" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="H13" s="36"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H13" s="37"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="27" t="s">
         <v>157</v>
       </c>
@@ -4140,17 +4143,17 @@
       <c r="D14" s="24">
         <v>2</v>
       </c>
-      <c r="F14" s="36" t="s">
+      <c r="F14" s="37" t="s">
         <v>145</v>
       </c>
       <c r="G14" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="H14" s="36" t="s">
+      <c r="H14" s="37" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" s="27" t="s">
         <v>158</v>
       </c>
@@ -4160,13 +4163,13 @@
       <c r="D15" s="24">
         <v>2</v>
       </c>
-      <c r="F15" s="36"/>
+      <c r="F15" s="37"/>
       <c r="G15" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="H15" s="36"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H15" s="37"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="27" t="s">
         <v>163</v>
       </c>
@@ -4183,7 +4186,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="27" t="s">
         <v>164</v>
       </c>
@@ -4197,7 +4200,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="27" t="s">
         <v>165</v>
       </c>
@@ -4214,7 +4217,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="27" t="s">
         <v>166</v>
       </c>
@@ -4228,112 +4231,112 @@
         <v>139</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="I20" s="31" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="I21" s="31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="I22" s="31" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="I23" s="31" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="I24" s="31" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="I25" s="31" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="I26" s="31" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="I27" s="31" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="I28" s="31" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="I29" s="31" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="I30" s="32" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="I31" s="31" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="I32" s="32" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I33" s="32" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I34" s="32" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I35" s="31" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I36" s="31" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I37" s="31" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="38" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I38" s="31" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="39" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I39" s="31" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="40" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I40" s="23" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="41" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I41" s="23" t="s">
         <v>45</v>
       </c>
